--- a/statistics/HistoricalDistanceData/historical_distance/Q707547-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q707547-en.xlsx
@@ -31,31 +31,31 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Agnieszka Arnold, documentary filmmaker - Part One</t>
+  </si>
+  <si>
     <t>Poland’s president asks for forgiveness at Jedwabne memorial</t>
   </si>
   <si>
-    <t>Agnieszka Arnold, documentary filmmaker - Part One</t>
-  </si>
-  <si>
     <t>Pogrom in Jedwabne. Course of Events</t>
   </si>
   <si>
+    <t>2011-10-12T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2011-07-11T00:00:00UTC</t>
   </si>
   <si>
-    <t>2011-10-12T00:00:00UTC</t>
-  </si>
-  <si>
     <t>2017-07-09T18:20:20UTC</t>
   </si>
   <si>
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://www.wilmatheater.org/blog/agnieszka-arnold-documentary-filmmaker-%E2%80%93-part-one</t>
+  </si>
+  <si>
     <t>https://web.archive.org/web/20110713104934/http://www.jta.org/news/article/2011/07/11/3088484/polands-president-asks-jewish-forgiveness-at-memorial-ceremony</t>
-  </si>
-  <si>
-    <t>https://www.wilmatheater.org/blog/agnieszka-arnold-documentary-filmmaker-%E2%80%93-part-one</t>
   </si>
   <si>
     <t>http://www.polin.pl/en/news/2016/07/09/pogrom-in-jedwabne-course-of-events</t>
@@ -460,7 +460,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>25568</v>
+        <v>25661</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -477,7 +477,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>25661</v>
+        <v>25568</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
